--- a/RIMEDIE/Mat09_2015/Post-Reunión25042018/DINA_Estimaciones/DINA_Item-parameters_09_ajustes.xlsx
+++ b/RIMEDIE/Mat09_2015/Post-Reunión25042018/DINA_Estimaciones/DINA_Item-parameters_09_ajustes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Eje1-SNPA" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Eje3-FEM" sheetId="3" r:id="rId3"/>
     <sheet name="TODOS" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="56">
   <si>
     <t>se.guess</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Eje 2 - MI</t>
+  </si>
+  <si>
+    <t>IDI</t>
   </si>
 </sst>
 </file>
@@ -857,7 +860,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -984,6 +987,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1308,18 +1314,18 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" style="1"/>
+    <col min="1" max="7" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
@@ -1336,10 +1342,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1355,11 +1364,15 @@
       <c r="E2" s="7">
         <v>1.2E-2</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="46">
+        <f>1-D2-B2</f>
+        <v>0.496</v>
+      </c>
+      <c r="G2" s="7">
         <v>9.6639083502260293E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -1375,11 +1388,15 @@
       <c r="E3" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="13">
+        <f t="shared" ref="F3:F20" si="0">1-D3-B3</f>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G3" s="7">
         <v>1.22556362599399E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1395,11 +1412,15 @@
       <c r="E4" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="13">
+        <f t="shared" si="0"/>
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="G4" s="7">
         <v>1.6569220046209199E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -1415,11 +1436,15 @@
       <c r="E5" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="G5" s="7">
         <v>1.7392830464888799E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1435,11 +1460,15 @@
       <c r="E6" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.26499999999999996</v>
+      </c>
+      <c r="G6" s="7">
         <v>1.8210015288773401E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -1455,11 +1484,15 @@
       <c r="E7" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.34899999999999992</v>
+      </c>
+      <c r="G7" s="7">
         <v>3.4600802439258997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -1475,11 +1508,15 @@
       <c r="E8" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="G8" s="7">
         <v>1.10608191690852E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -1495,11 +1532,15 @@
       <c r="E9" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.41899999999999993</v>
+      </c>
+      <c r="G9" s="7">
         <v>1.92217249794461E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -1515,11 +1556,15 @@
       <c r="E10" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="G10" s="7">
         <v>1.70710446662088E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
@@ -1535,11 +1580,15 @@
       <c r="E11" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.44899999999999995</v>
+      </c>
+      <c r="G11" s="7">
         <v>1.25171676545714E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -1555,11 +1604,15 @@
       <c r="E12" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G12" s="7">
         <v>2.1914659550389699E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
@@ -1575,11 +1628,15 @@
       <c r="E13" s="7">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.53699999999999992</v>
+      </c>
+      <c r="G13" s="7">
         <v>1.7814152740429499E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
@@ -1595,11 +1652,15 @@
       <c r="E14" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="G14" s="7">
         <v>3.0298172832728201E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
@@ -1615,11 +1676,15 @@
       <c r="E15" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="G15" s="7">
         <v>9.9609460711468194E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
@@ -1635,11 +1700,15 @@
       <c r="E16" s="7">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G16" s="7">
         <v>1.85081828459134E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
@@ -1655,11 +1724,15 @@
       <c r="E17" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G17" s="7">
         <v>1.3525211541329501E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
@@ -1675,11 +1748,15 @@
       <c r="E18" s="7">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="13">
+        <f t="shared" si="0"/>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G18" s="7">
         <v>1.71120829798493E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -1695,11 +1772,15 @@
       <c r="E19" s="7">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="G19" s="7">
         <v>1.2794930094986501E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
@@ -1715,7 +1796,11 @@
       <c r="E20" s="9">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="14">
+        <f t="shared" si="0"/>
+        <v>0.32399999999999995</v>
+      </c>
+      <c r="G20" s="9">
         <v>1.5378176927470601E-2</v>
       </c>
     </row>
@@ -1729,15 +1814,15 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F13"/>
+      <selection activeCell="F2" sqref="F2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
@@ -1754,10 +1839,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1773,11 +1861,15 @@
       <c r="E2" s="16">
         <v>0.03</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="46">
+        <f>1-D2-B2</f>
+        <v>0.39799999999999996</v>
+      </c>
+      <c r="G2" s="7">
         <v>2.4913054E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -1793,11 +1885,15 @@
       <c r="E3" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="13">
+        <f t="shared" ref="F3:F13" si="0">1-D3-B3</f>
+        <v>0.42699999999999994</v>
+      </c>
+      <c r="G3" s="7">
         <v>3.1684360000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1813,11 +1909,15 @@
       <c r="E4" s="7">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="13">
+        <f t="shared" si="0"/>
+        <v>0.42100000000000004</v>
+      </c>
+      <c r="G4" s="7">
         <v>7.3881140000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1833,11 +1933,15 @@
       <c r="E5" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.55699999999999994</v>
+      </c>
+      <c r="G5" s="7">
         <v>9.0451070000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -1853,11 +1957,15 @@
       <c r="E6" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="G6" s="7">
         <v>1.0258678E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1873,11 +1981,15 @@
       <c r="E7" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.23999999999999996</v>
+      </c>
+      <c r="G7" s="7">
         <v>2.2245712000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1893,11 +2005,15 @@
       <c r="E8" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="G8" s="7">
         <v>9.2712950000000006E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1913,11 +2029,15 @@
       <c r="E9" s="7">
         <v>1.9E-2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.24300000000000005</v>
+      </c>
+      <c r="G9" s="7">
         <v>2.6815346E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -1933,11 +2053,15 @@
       <c r="E10" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.52099999999999991</v>
+      </c>
+      <c r="G10" s="7">
         <v>1.1630484E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -1953,11 +2077,15 @@
       <c r="E11" s="7">
         <v>0.02</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.15800000000000003</v>
+      </c>
+      <c r="G11" s="7">
         <v>1.4818032E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -1973,11 +2101,15 @@
       <c r="E12" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G12" s="7">
         <v>3.9797469999999996E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
@@ -1993,7 +2125,11 @@
       <c r="E13" s="9">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="14">
+        <f t="shared" si="0"/>
+        <v>0.29799999999999993</v>
+      </c>
+      <c r="G13" s="9">
         <v>1.1662527000000001E-2</v>
       </c>
     </row>
@@ -2007,15 +2143,15 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:F15"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
@@ -2032,10 +2168,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2052,10 +2191,14 @@
         <v>1.6E-2</v>
       </c>
       <c r="F2" s="13">
+        <f>1-D2-B2</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="G2" s="13">
         <v>4.6116658730144602E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2072,10 +2215,14 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F3" s="13">
+        <f t="shared" ref="F3:F15" si="0">1-D3-B3</f>
+        <v>0.49600000000000005</v>
+      </c>
+      <c r="G3" s="13">
         <v>2.1193827179792998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2092,10 +2239,14 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="F4" s="13">
+        <f t="shared" si="0"/>
+        <v>0.503</v>
+      </c>
+      <c r="G4" s="13">
         <v>4.0993445853111802E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2112,10 +2263,14 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.22699999999999992</v>
+      </c>
+      <c r="G5" s="13">
         <v>1.1991014039461E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2132,10 +2287,14 @@
         <v>1.6E-2</v>
       </c>
       <c r="F6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.39200000000000007</v>
+      </c>
+      <c r="G6" s="13">
         <v>1.10744730326027E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -2152,10 +2311,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.33499999999999996</v>
+      </c>
+      <c r="G7" s="13">
         <v>1.3192472029274999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2172,10 +2335,14 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="G8" s="13">
         <v>1.18224182391684E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -2192,10 +2359,14 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="F9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.31500000000000006</v>
+      </c>
+      <c r="G9" s="13">
         <v>1.05653450838164E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -2212,10 +2383,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="G10" s="13">
         <v>2.1102089157579999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -2232,10 +2407,14 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="G11" s="13">
         <v>8.8494767756229793E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -2252,10 +2431,14 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="F12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="G12" s="13">
         <v>7.6107712591166696E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2272,10 +2455,14 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="F13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="G13" s="13">
         <v>8.1889220441469495E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -2292,10 +2479,14 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="G14" s="13">
         <v>1.61376775288323E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2312,6 +2503,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="F15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33099999999999996</v>
+      </c>
+      <c r="G15" s="14">
         <v>2.1333415020701001E-2</v>
       </c>
     </row>
@@ -2325,10 +2520,10 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2337,7 +2532,7 @@
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>47</v>
       </c>
@@ -2356,11 +2551,14 @@
       <c r="F1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>28</v>
       </c>
@@ -2380,10 +2578,14 @@
         <v>1.2E-2</v>
       </c>
       <c r="G2" s="38">
+        <f>1-E2-C2</f>
+        <v>0.496</v>
+      </c>
+      <c r="H2" s="36">
         <v>9.6639083502260293E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -2403,10 +2605,14 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G3" s="39">
+        <f t="shared" ref="G3:G46" si="0">1-E3-C3</f>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H3" s="18">
         <v>1.22556362599399E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>30</v>
       </c>
@@ -2426,10 +2632,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G4" s="39">
+        <f t="shared" si="0"/>
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="H4" s="18">
         <v>1.6569220046209199E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
@@ -2449,10 +2659,14 @@
         <v>1.4E-2</v>
       </c>
       <c r="G5" s="39">
+        <f t="shared" si="0"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="H5" s="18">
         <v>1.7392830464888799E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>32</v>
       </c>
@@ -2472,10 +2686,14 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G6" s="39">
+        <f t="shared" si="0"/>
+        <v>0.26499999999999996</v>
+      </c>
+      <c r="H6" s="18">
         <v>1.8210015288773401E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>33</v>
       </c>
@@ -2495,10 +2713,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G7" s="39">
+        <f t="shared" si="0"/>
+        <v>0.34899999999999992</v>
+      </c>
+      <c r="H7" s="18">
         <v>3.4600802439258997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>34</v>
       </c>
@@ -2518,10 +2740,14 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G8" s="39">
+        <f t="shared" si="0"/>
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="H8" s="18">
         <v>1.10608191690852E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>35</v>
       </c>
@@ -2541,10 +2767,14 @@
         <v>1E-3</v>
       </c>
       <c r="G9" s="39">
+        <f t="shared" si="0"/>
+        <v>0.41899999999999993</v>
+      </c>
+      <c r="H9" s="18">
         <v>1.92217249794461E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>36</v>
       </c>
@@ -2564,10 +2794,14 @@
         <v>1.4E-2</v>
       </c>
       <c r="G10" s="39">
+        <f t="shared" si="0"/>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="H10" s="18">
         <v>1.70710446662088E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
@@ -2587,10 +2821,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G11" s="39">
+        <f t="shared" si="0"/>
+        <v>0.44899999999999995</v>
+      </c>
+      <c r="H11" s="18">
         <v>1.25171676545714E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>2</v>
       </c>
@@ -2610,10 +2848,14 @@
         <v>1.6E-2</v>
       </c>
       <c r="G12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="H12" s="20">
         <v>4.6116658730144602E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>3</v>
       </c>
@@ -2633,10 +2875,14 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.49600000000000005</v>
+      </c>
+      <c r="H13" s="20">
         <v>2.1193827179792998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>4</v>
       </c>
@@ -2656,10 +2902,14 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.503</v>
+      </c>
+      <c r="H14" s="20">
         <v>4.0993445853111802E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>5</v>
       </c>
@@ -2679,10 +2929,14 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G15" s="22">
+        <f t="shared" si="0"/>
+        <v>0.22699999999999992</v>
+      </c>
+      <c r="H15" s="20">
         <v>1.1991014039461E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>6</v>
       </c>
@@ -2702,10 +2956,14 @@
         <v>1.6E-2</v>
       </c>
       <c r="G16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.39200000000000007</v>
+      </c>
+      <c r="H16" s="20">
         <v>1.10744730326027E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>7</v>
       </c>
@@ -2725,10 +2983,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.33499999999999996</v>
+      </c>
+      <c r="H17" s="20">
         <v>1.3192472029274999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>8</v>
       </c>
@@ -2748,10 +3010,14 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="H18" s="20">
         <v>1.18224182391684E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
@@ -2771,10 +3037,14 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.31500000000000006</v>
+      </c>
+      <c r="H19" s="20">
         <v>1.05653450838164E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>16</v>
       </c>
@@ -2794,10 +3064,14 @@
         <v>0.03</v>
       </c>
       <c r="G20" s="40">
+        <f t="shared" si="0"/>
+        <v>0.39799999999999996</v>
+      </c>
+      <c r="H20" s="25">
         <v>2.4913054E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>17</v>
       </c>
@@ -2817,10 +3091,14 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G21" s="40">
+        <f t="shared" si="0"/>
+        <v>0.42699999999999994</v>
+      </c>
+      <c r="H21" s="25">
         <v>3.1684360000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>18</v>
       </c>
@@ -2840,10 +3118,14 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="G22" s="40">
+        <f t="shared" si="0"/>
+        <v>0.42100000000000004</v>
+      </c>
+      <c r="H22" s="25">
         <v>7.3881140000000003E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>19</v>
       </c>
@@ -2863,10 +3145,14 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G23" s="40">
+        <f t="shared" si="0"/>
+        <v>0.55699999999999994</v>
+      </c>
+      <c r="H23" s="25">
         <v>9.0451070000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>20</v>
       </c>
@@ -2886,10 +3172,14 @@
         <v>1E-3</v>
       </c>
       <c r="G24" s="40">
+        <f t="shared" si="0"/>
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="H24" s="25">
         <v>1.0258678E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>21</v>
       </c>
@@ -2909,10 +3199,14 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G25" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23999999999999996</v>
+      </c>
+      <c r="H25" s="25">
         <v>2.2245712000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>22</v>
       </c>
@@ -2932,10 +3226,14 @@
         <v>1.4E-2</v>
       </c>
       <c r="G26" s="40">
+        <f t="shared" si="0"/>
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="H26" s="25">
         <v>9.2712950000000006E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>38</v>
       </c>
@@ -2955,10 +3253,14 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G27" s="39">
+        <f t="shared" si="0"/>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="H27" s="18">
         <v>2.1914659550389699E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>39</v>
       </c>
@@ -2978,10 +3280,14 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="G28" s="39">
+        <f t="shared" si="0"/>
+        <v>0.53699999999999992</v>
+      </c>
+      <c r="H28" s="18">
         <v>1.7814152740429499E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>40</v>
       </c>
@@ -3001,10 +3307,14 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G29" s="39">
+        <f t="shared" si="0"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="H29" s="18">
         <v>3.0298172832728201E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>41</v>
       </c>
@@ -3024,10 +3334,14 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G30" s="39">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="H30" s="18">
         <v>9.9609460711468194E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>42</v>
       </c>
@@ -3047,10 +3361,14 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G31" s="39">
+        <f t="shared" si="0"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="H31" s="18">
         <v>1.85081828459134E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
@@ -3070,10 +3388,14 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G32" s="39">
+        <f t="shared" si="0"/>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="H32" s="18">
         <v>1.3525211541329501E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>44</v>
       </c>
@@ -3093,10 +3415,14 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="G33" s="39">
+        <f t="shared" si="0"/>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H33" s="18">
         <v>1.71120829798493E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>45</v>
       </c>
@@ -3116,10 +3442,14 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G34" s="39">
+        <f t="shared" si="0"/>
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="H34" s="18">
         <v>1.2794930094986501E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>46</v>
       </c>
@@ -3139,10 +3469,14 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G35" s="39">
+        <f t="shared" si="0"/>
+        <v>0.32399999999999995</v>
+      </c>
+      <c r="H35" s="18">
         <v>1.5378176927470601E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>10</v>
       </c>
@@ -3162,10 +3496,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G36" s="22">
+        <f t="shared" si="0"/>
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="H36" s="20">
         <v>2.1102089157579999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -3185,10 +3523,14 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G37" s="22">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="H37" s="20">
         <v>8.8494767756229793E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>12</v>
       </c>
@@ -3208,10 +3550,14 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G38" s="22">
+        <f t="shared" si="0"/>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="H38" s="20">
         <v>7.6107712591166696E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>13</v>
       </c>
@@ -3231,10 +3577,14 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G39" s="22">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="H39" s="20">
         <v>8.1889220441469495E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>14</v>
       </c>
@@ -3254,10 +3604,14 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G40" s="22">
+        <f t="shared" si="0"/>
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="H40" s="20">
         <v>1.61376775288323E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>23</v>
       </c>
@@ -3277,10 +3631,14 @@
         <v>1.9E-2</v>
       </c>
       <c r="G41" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24300000000000005</v>
+      </c>
+      <c r="H41" s="25">
         <v>2.6815346E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>15</v>
       </c>
@@ -3300,10 +3658,14 @@
         <v>1.4E-2</v>
       </c>
       <c r="G42" s="22">
+        <f t="shared" si="0"/>
+        <v>0.33099999999999996</v>
+      </c>
+      <c r="H42" s="20">
         <v>2.1333415020701001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>24</v>
       </c>
@@ -3323,10 +3685,14 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G43" s="22">
+        <f t="shared" si="0"/>
+        <v>0.52099999999999991</v>
+      </c>
+      <c r="H43" s="20">
         <v>1.1630484E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>25</v>
       </c>
@@ -3346,10 +3712,14 @@
         <v>0.02</v>
       </c>
       <c r="G44" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15800000000000003</v>
+      </c>
+      <c r="H44" s="20">
         <v>1.4818032E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>26</v>
       </c>
@@ -3369,10 +3739,14 @@
         <v>1E-3</v>
       </c>
       <c r="G45" s="22">
+        <f t="shared" si="0"/>
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="H45" s="20">
         <v>3.9797469999999996E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
         <v>27</v>
       </c>
@@ -3392,6 +3766,10 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G46" s="44">
+        <f t="shared" si="0"/>
+        <v>0.29799999999999993</v>
+      </c>
+      <c r="H46" s="42">
         <v>1.1662527000000001E-2</v>
       </c>
     </row>
